--- a/0_Datasets/Data2020/Region/clean_data/regnprof_2020_clean.xlsx
+++ b/0_Datasets/Data2020/Region/clean_data/regnprof_2020_clean.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OB21"/>
+  <dimension ref="A1:OD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2394,6 +2394,16 @@
           <t>Region 2019 Graduates: Minimum HS PGM All Students % (Profile Only)</t>
         </is>
       </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>REGNNAME</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3574,6 +3584,16 @@
       <c r="OB2" t="n">
         <v>0.8</v>
       </c>
+      <c r="OC2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="OD2" t="inlineStr">
+        <is>
+          <t>REGION 01: EDINBURG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4754,6 +4774,16 @@
       <c r="OB3" t="n">
         <v>0.2</v>
       </c>
+      <c r="OC3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="OD3" t="inlineStr">
+        <is>
+          <t>REGION 02: CORPUS CHRISTI</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5932,6 +5962,16 @@
       <c r="OB4" t="n">
         <v>0.1</v>
       </c>
+      <c r="OC4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="OD4" t="inlineStr">
+        <is>
+          <t>REGION 03: VICTORIA</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7112,6 +7152,16 @@
       <c r="OB5" t="n">
         <v>0.7</v>
       </c>
+      <c r="OC5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="OD5" t="inlineStr">
+        <is>
+          <t>REGION 04: HOUSTON</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8292,6 +8342,16 @@
       <c r="OB6" t="n">
         <v>0.3</v>
       </c>
+      <c r="OC6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="OD6" t="inlineStr">
+        <is>
+          <t>REGION 05: BEAUMONT</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9472,6 +9532,16 @@
       <c r="OB7" t="n">
         <v>0.3</v>
       </c>
+      <c r="OC7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="OD7" t="inlineStr">
+        <is>
+          <t>REGION 06: HUNTSVILLE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -10652,6 +10722,16 @@
       <c r="OB8" t="n">
         <v>0.3</v>
       </c>
+      <c r="OC8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="OD8" t="inlineStr">
+        <is>
+          <t>REGION 07: KILGORE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11832,6 +11912,16 @@
       <c r="OB9" t="n">
         <v>0.1</v>
       </c>
+      <c r="OC9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="OD9" t="inlineStr">
+        <is>
+          <t>REGION 08: MT PLEASANT</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -13012,6 +13102,16 @@
       <c r="OB10" t="n">
         <v>0.2</v>
       </c>
+      <c r="OC10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="OD10" t="inlineStr">
+        <is>
+          <t>REGION 09: WICHITA FALLS</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -14192,6 +14292,16 @@
       <c r="OB11" t="n">
         <v>0.8</v>
       </c>
+      <c r="OC11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="OD11" t="inlineStr">
+        <is>
+          <t>REGION 10: RICHARDSON</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -15372,6 +15482,16 @@
       <c r="OB12" t="n">
         <v>0.6</v>
       </c>
+      <c r="OC12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="OD12" t="inlineStr">
+        <is>
+          <t>REGION 11: FORT WORTH</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -16552,6 +16672,16 @@
       <c r="OB13" t="n">
         <v>0.9</v>
       </c>
+      <c r="OC13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="OD13" t="inlineStr">
+        <is>
+          <t>REGION 12: WACO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -17732,6 +17862,16 @@
       <c r="OB14" t="n">
         <v>1</v>
       </c>
+      <c r="OC14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="OD14" t="inlineStr">
+        <is>
+          <t>REGION 13: AUSTIN</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -18912,6 +19052,16 @@
       <c r="OB15" t="n">
         <v>0.4</v>
       </c>
+      <c r="OC15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="OD15" t="inlineStr">
+        <is>
+          <t>REGION 14: ABILENE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -20092,6 +20242,16 @@
       <c r="OB16" t="n">
         <v>0.3</v>
       </c>
+      <c r="OC16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="OD16" t="inlineStr">
+        <is>
+          <t>REGION 15: SAN ANGELO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -21272,6 +21432,16 @@
       <c r="OB17" t="n">
         <v>0.2</v>
       </c>
+      <c r="OC17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="OD17" t="inlineStr">
+        <is>
+          <t>REGION 16: AMARILLO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -22452,6 +22622,16 @@
       <c r="OB18" t="n">
         <v>1</v>
       </c>
+      <c r="OC18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="OD18" t="inlineStr">
+        <is>
+          <t>REGION 17: LUBBOCK</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -23632,6 +23812,16 @@
       <c r="OB19" t="n">
         <v>0.3</v>
       </c>
+      <c r="OC19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="OD19" t="inlineStr">
+        <is>
+          <t>REGION 18: MIDLAND</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -24812,6 +25002,16 @@
       <c r="OB20" t="n">
         <v>0.5</v>
       </c>
+      <c r="OC20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="OD20" t="inlineStr">
+        <is>
+          <t>REGION 19: EL PASO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25991,6 +26191,16 @@
       </c>
       <c r="OB21" t="n">
         <v>0.6</v>
+      </c>
+      <c r="OC21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="OD21" t="inlineStr">
+        <is>
+          <t>REGION 20: SAN ANTONIO</t>
+        </is>
       </c>
     </row>
   </sheetData>
